--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T07:43:46+00:00</t>
+    <t>2025-10-24T09:56:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T09:56:53+00:00</t>
+    <t>2025-10-27T08:54:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-task-transport</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-task-transport|2.0.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -925,7 +925,7 @@
     <t>The title (eg "My Tasks", "Outstanding Tasks for Patient X") should go into the code.</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-mode-de-transport-cisis</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-mode-de-transport-cisis|20250624152101</t>
   </si>
   <si>
     <t>typeTransport</t>
@@ -998,7 +998,7 @@
     <t>Task.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-evenement)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-evenement|2.0.0)
 </t>
   </si>
   <si>
@@ -1213,7 +1213,7 @@
 Executer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization|2.0.0)
 </t>
   </si>
   <si>
@@ -1566,7 +1566,7 @@
     <t>Task.input:typeMotorisation.value[x]</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-type-motorisation-cisis</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-type-motorisation-cisis|20250624152100</t>
   </si>
   <si>
     <t>Task.input:adresseDepart</t>
@@ -1877,7 +1877,7 @@
     <t>Task.input:natureTransport.value[x]</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J282-TransportsLiesAuProjetIndividuel_SERAFIN/FHIR/JDV-J282-TransportsLiesAuProjetIndividuel-SERAFIN</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J282-TransportsLiesAuProjetIndividuel_SERAFIN/FHIR/JDV-J282-TransportsLiesAuProjetIndividuel-SERAFIN|20241025120000</t>
   </si>
   <si>
     <t>Task.output</t>
@@ -2264,7 +2264,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="145.00390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="112.25" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="126.78125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T08:54:54+00:00</t>
+    <t>2025-10-27T14:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-task-transport|2.0.0</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-task-transport</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -925,7 +925,7 @@
     <t>The title (eg "My Tasks", "Outstanding Tasks for Patient X") should go into the code.</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-mode-de-transport-cisis|20250624152101</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-mode-de-transport-cisis</t>
   </si>
   <si>
     <t>typeTransport</t>
@@ -998,7 +998,7 @@
     <t>Task.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-evenement|2.0.0)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-evenement)
 </t>
   </si>
   <si>
@@ -1213,7 +1213,7 @@
 Executer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization|2.0.0)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization)
 </t>
   </si>
   <si>
@@ -1566,7 +1566,7 @@
     <t>Task.input:typeMotorisation.value[x]</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-type-motorisation-cisis|20250624152100</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-type-motorisation-cisis</t>
   </si>
   <si>
     <t>Task.input:adresseDepart</t>
@@ -1877,7 +1877,7 @@
     <t>Task.input:natureTransport.value[x]</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J282-TransportsLiesAuProjetIndividuel_SERAFIN/FHIR/JDV-J282-TransportsLiesAuProjetIndividuel-SERAFIN|20241025120000</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J282-TransportsLiesAuProjetIndividuel_SERAFIN/FHIR/JDV-J282-TransportsLiesAuProjetIndividuel-SERAFIN</t>
   </si>
   <si>
     <t>Task.output</t>
@@ -2264,7 +2264,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="145.00390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="126.78125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="112.25" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T14:34:13+00:00</t>
+    <t>2025-10-28T10:21:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T10:21:51+00:00</t>
+    <t>2025-10-28T15:41:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:41:17+00:00</t>
+    <t>2025-10-29T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
